--- a/biology/Histoire de la zoologie et de la botanique/Joseph_Randle_Bailey/Joseph_Randle_Bailey.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Joseph_Randle_Bailey/Joseph_Randle_Bailey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph “Joe” Randle Bailey est un herpétologiste américain, né le 17 septembre 1913 à Fairmont (Virginie-Occidentale), et mort le 18 septembre 1998.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d’Elizabeth Weston (née Maclaren) et de Joseph Randle Bailey. Son père, gérant d’une mine de charbon en Pennsylvanie, meurt dans un accident deux ans après sa naissance. Il grandit à Perrysburg (Ohio). Joseph et son frère aîné, Reeve, sont encouragés par leur mère à s’intéresser à la nature et à récolter des plantes et des animaux.
 Durant ses études au collège, dans les années 1930, il rencontre l’herpétologiste Roger Conant (1909-2003) et l’accompagnera dans plusieurs voyages pour récolter des données et des spécimens. Les deux frères étudient à l’université du Michigan. Joe s’intéresse d’abord aux oiseaux mais c’est l’influence de Helen Thompson Gaige (1890-1976) et de Frederick McMahon Gaige (1890-1976) qui l’oriente vers l’herpétologie. Il obtient son baccalauréat en 1935 et rejoint alors l’American Society of Ichthyologists and Herpetologists (ASIH).
@@ -546,7 +560,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>William A. Jr. Velhagen et Margaret M. Stewart (2000). Joseph Randle Bailey, Copeia, 2000 (1) : 310–313.  (ISSN 0045-8511)</t>
         </is>
